--- a/backtest/bt_report/bs_vaq_rs_smae_ind/single_run/summary.xlsx
+++ b/backtest/bt_report/bs_vaq_rs_smae_ind/single_run/summary.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>399006.XSHE</t>
+          <t>000300.XSHG</t>
         </is>
       </c>
       <c r="C6" s="13" t="n"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>创业板指</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="C7" s="13" t="n"/>
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="B8" s="7" t="n">
-        <v>227950803.0226921</v>
+        <v>242766876.9272563</v>
       </c>
       <c r="C8" s="13" t="n"/>
       <c r="D8" s="13" t="n"/>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B9" s="7" t="n">
-        <v>84.53539208322763</v>
+        <v>45.33755623921752</v>
       </c>
       <c r="C9" s="13" t="n"/>
       <c r="D9" s="13" t="n"/>
@@ -740,7 +740,7 @@
         </is>
       </c>
       <c r="B10" s="7" t="n">
-        <v>1.279508030226921</v>
+        <v>1.427668769272563</v>
       </c>
       <c r="C10" s="13" t="n"/>
       <c r="D10" s="13" t="n"/>
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="B11" s="7" t="n">
-        <v>0.109399541194247</v>
+        <v>0.1182370266368864</v>
       </c>
       <c r="C11" s="13" t="n"/>
       <c r="D11" s="13" t="n"/>
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="B12" s="7" t="n">
-        <v>2.279508030226921</v>
+        <v>2.427668769272563</v>
       </c>
       <c r="C12" s="13" t="n"/>
       <c r="D12" s="13" t="n"/>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="B14" s="7" t="n">
-        <v>110.8359401938658</v>
+        <v>146.3428327377866</v>
       </c>
       <c r="C14" s="13" t="n"/>
       <c r="D14" s="13" t="n"/>
@@ -810,7 +810,7 @@
         </is>
       </c>
       <c r="B15" s="7" t="n">
-        <v>0.2392851637992232</v>
+        <v>0.3817654571392523</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>0.1108767671923268</v>
+        <v>0.1618047314106285</v>
       </c>
       <c r="C16" s="13" t="n"/>
       <c r="D16" s="13" t="n"/>
@@ -834,7 +834,7 @@
         </is>
       </c>
       <c r="B17" s="5" t="n">
-        <v>0.6037779375378859</v>
+        <v>0.5059771674888709</v>
       </c>
       <c r="C17" s="13" t="n"/>
       <c r="D17" s="13" t="n"/>
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>0.07687514293114868</v>
+        <v>0.1165157336432872</v>
       </c>
       <c r="C18" s="13" t="n"/>
       <c r="D18" s="13" t="n"/>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>0.8708269443636543</v>
+        <v>0.7026475920933629</v>
       </c>
       <c r="C19" s="13" t="n"/>
       <c r="D19" s="13" t="n"/>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B20" s="5" t="n">
-        <v>0.1668678298659937</v>
+        <v>0.2278741511017424</v>
       </c>
       <c r="C20" s="13" t="n"/>
       <c r="D20" s="13" t="n"/>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="B21" s="5" t="n">
-        <v>0.01112137997663709</v>
+        <v>0.01648818243650766</v>
       </c>
       <c r="C21" s="13" t="n"/>
       <c r="D21" s="13" t="n"/>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B22" s="7" t="n">
-        <v>-0.4151047717122915</v>
+        <v>-0.0819477644148395</v>
       </c>
       <c r="C22" s="13" t="n"/>
       <c r="D22" s="13" t="n"/>
@@ -918,7 +918,7 @@
         </is>
       </c>
       <c r="B23" s="7" t="n">
-        <v>-0.06534391476631063</v>
+        <v>-0.01071530226964179</v>
       </c>
       <c r="C23" s="13" t="n"/>
       <c r="D23" s="13" t="n"/>
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="B24" s="7" t="n">
-        <v>0.05703343027055491</v>
+        <v>0.05774524117137717</v>
       </c>
       <c r="C24" s="13" t="n"/>
       <c r="D24" s="13" t="n"/>
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="B25" s="7" t="n">
-        <v>0.1700599276903941</v>
+        <v>0.347647098002445</v>
       </c>
       <c r="C25" s="13" t="n"/>
       <c r="D25" s="13" t="n"/>
@@ -960,7 +960,7 @@
         </is>
       </c>
       <c r="B26" s="7" t="n">
-        <v>0.9627970946002989</v>
+        <v>0.6156820965997811</v>
       </c>
       <c r="C26" s="13" t="n"/>
       <c r="D26" s="13" t="n"/>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B27" s="7" t="n">
-        <v>-0.104072216072275</v>
+        <v>0.05018243954360428</v>
       </c>
       <c r="C27" s="13" t="n"/>
       <c r="D27" s="13" t="n"/>
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="B28" s="7" t="n">
-        <v>0.6302201466142024</v>
+        <v>0.4374026717360959</v>
       </c>
       <c r="C28" s="13" t="n"/>
       <c r="D28" s="13" t="n"/>
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="B29" s="7" t="n">
-        <v>0.2784119343231887</v>
+        <v>0.2061734502098648</v>
       </c>
       <c r="C29" s="13" t="n"/>
       <c r="D29" s="13" t="n"/>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="B30" s="5" t="n">
-        <v>0.05443289559626004</v>
+        <v>0.0530900887328969</v>
       </c>
       <c r="C30" s="13" t="n"/>
       <c r="D30" s="13" t="n"/>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="B31" s="5" t="n">
-        <v>0.1791646339068093</v>
+        <v>0.4056577519763032</v>
       </c>
       <c r="C31" s="13" t="n"/>
       <c r="D31" s="13" t="n"/>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="B32" s="5" t="n">
-        <v>0.5979420704387703</v>
+        <v>0.5040267228723241</v>
       </c>
       <c r="C32" s="13" t="n"/>
       <c r="D32" s="13" t="n"/>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="B33" s="5" t="n">
-        <v>0.918665009532686</v>
+        <v>0.7359490514363577</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="B34" s="5" t="n">
-        <v>0.9704344636536759</v>
+        <v>0.6172943541932793</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1">
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B35" s="5" t="n">
-        <v>0.03635108956904758</v>
+        <v>0.02518989264282488</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1">
@@ -1088,7 +1088,7 @@
         </is>
       </c>
       <c r="B36" s="16" t="n">
-        <v>0.1552065930843773</v>
+        <v>0.2242931855407705</v>
       </c>
     </row>
   </sheetData>
@@ -1157,16 +1157,16 @@
         <v>2014</v>
       </c>
       <c r="B2" s="13" t="n">
-        <v>0.3353530000000026</v>
+        <v>0.4009419999999999</v>
       </c>
       <c r="C2" s="13" t="n">
-        <v>0.2045189118965728</v>
+        <v>-0.1267118827095865</v>
       </c>
       <c r="D2" s="13" t="n">
-        <v>3.850758943756474</v>
+        <v>3.447136852789638</v>
       </c>
       <c r="E2" s="13" t="n">
-        <v>5.298441235539599</v>
+        <v>1.367094603108507</v>
       </c>
       <c r="F2" s="13" t="n">
         <v>0.5</v>
@@ -1177,19 +1177,19 @@
         <v>2015</v>
       </c>
       <c r="B3" s="13" t="n">
-        <v>0.1775358276051357</v>
+        <v>0.1542997497398183</v>
       </c>
       <c r="C3" s="13" t="n">
-        <v>-0.4944687013361825</v>
+        <v>-0.0503175180075787</v>
       </c>
       <c r="D3" s="13" t="n">
-        <v>2.633821032181576</v>
+        <v>2.645739595498996</v>
       </c>
       <c r="E3" s="13" t="n">
-        <v>2.267076373559672</v>
+        <v>3.061274068280463</v>
       </c>
       <c r="F3" s="13" t="n">
-        <v>0.3269230769230769</v>
+        <v>0.4038461538461539</v>
       </c>
     </row>
     <row r="4">
@@ -1197,19 +1197,19 @@
         <v>2016</v>
       </c>
       <c r="B4" s="13" t="n">
-        <v>0.002247482552439315</v>
+        <v>0.008041521061995195</v>
       </c>
       <c r="C4" s="13" t="n">
-        <v>0.2526582971656773</v>
+        <v>0.08837492135048307</v>
       </c>
       <c r="D4" s="13" t="n">
-        <v>0.06806999516607935</v>
+        <v>0.195069346586622</v>
       </c>
       <c r="E4" s="13" t="n">
-        <v>0.5277490046539777</v>
+        <v>0.4594803409499348</v>
       </c>
       <c r="F4" s="13" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -1217,19 +1217,19 @@
         <v>2017</v>
       </c>
       <c r="B5" s="13" t="n">
-        <v>0.04822013249067236</v>
+        <v>0.1221628465791596</v>
       </c>
       <c r="C5" s="13" t="n">
-        <v>0.1478633686993408</v>
+        <v>-0.08140000812810989</v>
       </c>
       <c r="D5" s="13" t="n">
-        <v>0.6979053635787289</v>
+        <v>1.089160591964809</v>
       </c>
       <c r="E5" s="13" t="n">
-        <v>1.004102420347323</v>
+        <v>-0.3144429524282549</v>
       </c>
       <c r="F5" s="13" t="n">
-        <v>0.5882352941176471</v>
+        <v>0.4901960784313725</v>
       </c>
     </row>
     <row r="6">
@@ -1237,19 +1237,19 @@
         <v>2018</v>
       </c>
       <c r="B6" s="13" t="n">
-        <v>-0.08358591315854616</v>
+        <v>-0.1169123957906242</v>
       </c>
       <c r="C6" s="13" t="n">
-        <v>0.2116904229690723</v>
+        <v>0.1481020766140432</v>
       </c>
       <c r="D6" s="13" t="n">
-        <v>-0.5866562540640646</v>
+        <v>-0.7125698138958271</v>
       </c>
       <c r="E6" s="13" t="n">
-        <v>-0.1532951463929668</v>
+        <v>-0.224912658766278</v>
       </c>
       <c r="F6" s="13" t="n">
-        <v>0.6274509803921569</v>
+        <v>0.5294117647058824</v>
       </c>
     </row>
     <row r="7">
@@ -1257,16 +1257,16 @@
         <v>2019</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>0.2908691812325072</v>
+        <v>0.3502885993953156</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>-0.1321394890005085</v>
+        <v>-0.01426343774425085</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>1.561716157282693</v>
+        <v>1.437854339867872</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.6281866853222836</v>
+        <v>0.318235699775497</v>
       </c>
       <c r="F7" s="13" t="n">
         <v>0.4230769230769231</v>
@@ -1277,19 +1277,19 @@
         <v>2020</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>0.08037971315292287</v>
+        <v>0.1216372338669743</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>-0.3886129845418732</v>
+        <v>-0.1283900259992691</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>0.7282725573275041</v>
+        <v>0.6167479660616387</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>-1.202163651329701</v>
+        <v>-0.5470202042184633</v>
       </c>
       <c r="F8" s="13" t="n">
-        <v>0.3846153846153846</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -1297,19 +1297,19 @@
         <v>2021</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>0.00350070170336636</v>
+        <v>-0.09182893532143155</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>-0.1564313734570449</v>
+        <v>-0.0530699800863578</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>0.08528668548353836</v>
+        <v>-0.4383797012259553</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>-0.2630741977771375</v>
+        <v>-0.4180677643010842</v>
       </c>
       <c r="F9" s="13" t="n">
-        <v>0.4230769230769231</v>
+        <v>0.5192307692307693</v>
       </c>
     </row>
     <row r="10">
@@ -1317,19 +1317,19 @@
         <v>2022</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>0.07590851293398487</v>
+        <v>0.09261193710773855</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>0.2317294274400336</v>
+        <v>0.1853457540723052</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>1.52017111940972</v>
+        <v>1.48634726644922</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>2.213313616626774</v>
+        <v>2.025277464390936</v>
       </c>
       <c r="F10" s="13" t="n">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
@@ -1433,31 +1433,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>-0.01586700000000008</v>
+        <v>-0.02076599999999995</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>0.01347480472659712</v>
+        <v>0.01670080899968762</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>0.03271124550578808</v>
+        <v>0.03409342016978933</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.04642434127492701</v>
+        <v>0.04734680160189431</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.002787988547443887</v>
+        <v>0.005521777355704138</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>0.0268190500291674</v>
+        <v>0.0209798658956124</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.01482432526713495</v>
+        <v>0.01001737163464056</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.0828681630685173</v>
+        <v>0.09793339570293647</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.1010187709117656</v>
+        <v>0.1412393019660108</v>
       </c>
     </row>
     <row r="3">
@@ -1465,40 +1465,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.004292497938747752</v>
+        <v>-0.00891542976083215</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>0.02043439446278339</v>
+        <v>0.02751049370089875</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>0.02378995733314837</v>
+        <v>0.03419972256665793</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.02055189483027831</v>
+        <v>0.01169888304505817</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>0.009255673429424238</v>
+        <v>0.007669988832323948</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.003095605205145846</v>
+        <v>0.003541535086262426</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.003729879519247747</v>
+        <v>0.004155081528237403</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.006491405881209333</v>
+        <v>0.005116942185019457</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>0.0009055978083569727</v>
+        <v>0.001879219300231494</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>0.05845985071500226</v>
+        <v>0.04088922199626799</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>0.02084282756734979</v>
+        <v>0.01150568360628901</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>0.002800320145915469</v>
+        <v>0.006251788981121109</v>
       </c>
     </row>
     <row r="4">
@@ -1506,40 +1506,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>-0.01515047448973739</v>
+        <v>-0.005310718462043784</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.0007451877595492373</v>
+        <v>0.001678562702709607</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>0.02694035258430816</v>
+        <v>0.01799941534949578</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>-0.01364429208021578</v>
+        <v>-0.007133189450196142</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>0.007081825438131961</v>
+        <v>0.007407953233611542</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>0.00744444655293508</v>
+        <v>0.006156344326167185</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.006669266060517876</v>
+        <v>0.0002617096912553851</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.004046651252634259</v>
+        <v>0.004042720196522298</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>-0.004628556910253656</v>
+        <v>-0.002706613801136459</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>0.001864151009337123</v>
+        <v>0.00305388482698854</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.002127918022830633</v>
+        <v>-0.0003449205326011562</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>-0.0161987978093634</v>
+        <v>-0.01669098632449051</v>
       </c>
     </row>
     <row r="5">
@@ -1547,40 +1547,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.0003115561308664194</v>
+        <v>0.0003091813993036929</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>0.006500677788272347</v>
+        <v>0.006486509691128628</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.01237033615071281</v>
+        <v>0.01423294775992057</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.008330184327350665</v>
+        <v>0.002267278082798585</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>-0.004200139778280931</v>
+        <v>-0.002635577600287431</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>0.02626627110710245</v>
+        <v>0.0334455577404793</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>-0.00758244878479053</v>
+        <v>0.04513546629727405</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>0.01048444682261507</v>
+        <v>0.0234927467445063</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.002875401670660693</v>
+        <v>-0.005758355650223868</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.01504559353153678</v>
+        <v>0.02313893861731797</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>-0.01859920289130423</v>
+        <v>-0.02470901413524118</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.00189771619044854</v>
+        <v>0.002380945857455963</v>
       </c>
     </row>
     <row r="6">
@@ -1588,40 +1588,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.02628404076871438</v>
+        <v>0.03304633046330507</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.05176795902730535</v>
+        <v>-0.07654548341006473</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>0.0194829955331115</v>
+        <v>0.0234577536944458</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>-0.01546742748918795</v>
+        <v>-0.02112277412993513</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.06263161743653045</v>
+        <v>0.06893360377334767</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>-0.03791526962818359</v>
+        <v>-0.04225760604802242</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>-0.02161760105914756</v>
+        <v>-0.02456858452815547</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>-0.04753876628208642</v>
+        <v>-0.05680726621618459</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.0001893001812989237</v>
+        <v>0</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>-0.02388503133593312</v>
+        <v>-0.02694853876672565</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.02445216176886089</v>
+        <v>-0.02790020732929677</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.03398856643284986</v>
+        <v>0.03711531621530351</v>
       </c>
     </row>
     <row r="7">
@@ -1629,40 +1629,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.02620497227970942</v>
+        <v>-0.02987579454595424</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>0.2487379612834599</v>
+        <v>0.2945172918340382</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>0.03969162775437174</v>
+        <v>0.04878706425333212</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>-0.01951085707120337</v>
+        <v>-0.02446600609311844</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>-0.03315274240828003</v>
+        <v>-0.04751032356567375</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>0.008043421468891587</v>
+        <v>0.009521092535631492</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.008414999267357226</v>
+        <v>-0.01168402476798858</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>0.0167120183281364</v>
+        <v>0.02143440526483609</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.01640098182453142</v>
+        <v>0.02189489378894405</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>0.006257216581757152</v>
+        <v>0.008265193370165624</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.01901867719259387</v>
+        <v>-0.02816235141327161</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>0.05632167505578312</v>
+        <v>0.08119736496433561</v>
       </c>
     </row>
     <row r="8">
@@ -1670,40 +1670,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>0.02924708271159915</v>
+        <v>0.0446218664612783</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.04354501192472582</v>
+        <v>-0.08598239861737889</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>-0.03261700130264211</v>
+        <v>-0.07679960281448595</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.007060591047772347</v>
+        <v>0.006793026706617633</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.01825497525843356</v>
+        <v>0.03208390674915584</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>0.05706389741703322</v>
+        <v>0.1167240192704746</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>0.05492773214718571</v>
+        <v>0.1358161424425448</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>-0.01354875635075914</v>
+        <v>-0.03977244700367877</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>-0.01792823086622453</v>
+        <v>-0.04978991527569154</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.006253810711270069</v>
+        <v>-0.01925913111173605</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.01854612369614372</v>
+        <v>0.0398012012594704</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>0.01177202948542355</v>
+        <v>0.03761269686166435</v>
       </c>
     </row>
     <row r="9">
@@ -1711,40 +1711,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.01092838457607237</v>
+        <v>0.01992634556274964</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>-0.0254305263769441</v>
+        <v>-0.05876902718739296</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>-0.01110482931955759</v>
+        <v>-0.02873633691324129</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.007361252161534715</v>
+        <v>0.02422921200154948</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>0.03758308483689965</v>
+        <v>0.01264743030324289</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.004480452612690367</v>
+        <v>-0.02599415974603481</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.01207266210141889</v>
+        <v>0.01326757188463668</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>-0.00214891148746621</v>
+        <v>-0.007325274745981436</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.03506591079212285</v>
+        <v>-0.05602337571684746</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>0.0002162280337969502</v>
+        <v>-0.002664410829298913</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>0.01128073273473573</v>
+        <v>0.01801655248133738</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.004235580965671115</v>
+        <v>0.0001381894392660232</v>
       </c>
     </row>
     <row r="10">
@@ -1752,25 +1752,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>-0.01164119957596288</v>
+        <v>-0.01999959494035519</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.008109290369041622</v>
+        <v>0.008594884493753563</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>-0.04191759446593757</v>
+        <v>-0.05005024649697443</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.004760913537676936</v>
+        <v>0.004779379692022356</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>0.01754652730618944</v>
+        <v>0.02195375019380075</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.09938548126339275</v>
+        <v>0.1302722144292547</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.002728185294896601</v>
+        <v>0.002622123469842697</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
@@ -1889,31 +1889,31 @@
         <v/>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.04879060347301967</v>
+        <v>0.01134791881134545</v>
       </c>
       <c r="F2" s="15" t="n">
-        <v>-0.01778988011136295</v>
+        <v>0.01642676048244573</v>
       </c>
       <c r="G2" s="15" t="n">
-        <v>-0.03313797690955234</v>
+        <v>0.0300719209901299</v>
       </c>
       <c r="H2" s="15" t="n">
-        <v>0.0902279330133362</v>
+        <v>-0.0356838212714341</v>
       </c>
       <c r="I2" s="15" t="n">
-        <v>-0.06145110185955249</v>
+        <v>0.01005031152007407</v>
       </c>
       <c r="J2" s="15" t="n">
-        <v>-0.05260675306332296</v>
+        <v>-0.02712545405303546</v>
       </c>
       <c r="K2" s="15" t="n">
-        <v>0.03200513265644989</v>
+        <v>-0.0139748125093484</v>
       </c>
       <c r="L2" s="15" t="n">
-        <v>0.03957854229711333</v>
+        <v>-0.02060092554532622</v>
       </c>
       <c r="M2" s="15" t="n">
-        <v>0.1628194060417889</v>
+        <v>-0.09874782195161591</v>
       </c>
     </row>
     <row r="3">
@@ -1921,40 +1921,40 @@
         <v>2015</v>
       </c>
       <c r="B3" s="15" t="n">
-        <v>-0.1356310517528407</v>
+        <v>0.01160096638463148</v>
       </c>
       <c r="C3" s="15" t="n">
-        <v>-0.1145493441612006</v>
+        <v>-0.01464170772423201</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>-0.1629660481690814</v>
+        <v>-0.09153640654928374</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>-0.176527426156891</v>
+        <v>-0.1415231892693898</v>
       </c>
       <c r="F3" s="15" t="n">
-        <v>-0.2010965208857513</v>
+        <v>-0.02241562098819849</v>
       </c>
       <c r="G3" s="15" t="n">
-        <v>0.1917825145963996</v>
+        <v>0.05988500774888417</v>
       </c>
       <c r="H3" s="15" t="n">
-        <v>0.09213064738875354</v>
+        <v>0.138271512718134</v>
       </c>
       <c r="I3" s="15" t="n">
-        <v>0.2268006181738471</v>
+        <v>0.1066712211971648</v>
       </c>
       <c r="J3" s="15" t="n">
-        <v>-0.06873702789838565</v>
+        <v>0.04361127397205866</v>
       </c>
       <c r="K3" s="15" t="n">
-        <v>-0.1213418085393122</v>
+        <v>-0.05947496782187955</v>
       </c>
       <c r="L3" s="15" t="n">
-        <v>-0.06605632682392992</v>
+        <v>-0.003704087137196166</v>
       </c>
       <c r="M3" s="15" t="n">
-        <v>-0.01703188573987768</v>
+        <v>-0.04288534881928685</v>
       </c>
     </row>
     <row r="4">
@@ -1962,40 +1962,40 @@
         <v>2016</v>
       </c>
       <c r="B4" s="15" t="n">
-        <v>0.2897875278071376</v>
+        <v>0.2324033679313091</v>
       </c>
       <c r="C4" s="15" t="n">
-        <v>0.04580836555842627</v>
+        <v>0.01852808163347519</v>
       </c>
       <c r="D4" s="15" t="n">
-        <v>-0.1496805844226242</v>
+        <v>-0.09319433743544547</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.02615866809589895</v>
+        <v>0.01112107725344513</v>
       </c>
       <c r="F4" s="15" t="n">
-        <v>-0.01147033963844379</v>
+        <v>0.0007161865274665224</v>
       </c>
       <c r="G4" s="15" t="n">
-        <v>-0.02854803588616805</v>
+        <v>0.009927414486056385</v>
       </c>
       <c r="H4" s="15" t="n">
-        <v>0.05285693859718577</v>
+        <v>-0.01620915934793776</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>-0.0300085412575275</v>
+        <v>-0.03480411143670314</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.01322586462220077</v>
+        <v>0.01920601803374744</v>
       </c>
       <c r="K4" s="15" t="n">
-        <v>-0.004063536745525398</v>
+        <v>-0.02245361894787568</v>
       </c>
       <c r="L4" s="15" t="n">
-        <v>-0.0140179519085023</v>
+        <v>-0.05792676715750522</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0.09071303640357709</v>
+        <v>0.04986127179523536</v>
       </c>
     </row>
     <row r="5">
@@ -2003,40 +2003,40 @@
         <v>2017</v>
       </c>
       <c r="B5" s="15" t="n">
-        <v>0.0371735094473189</v>
+        <v>-0.0230866146637233</v>
       </c>
       <c r="C5" s="15" t="n">
-        <v>-0.01552692461728544</v>
+        <v>-0.01280429192719634</v>
       </c>
       <c r="D5" s="15" t="n">
-        <v>0.0216722522228685</v>
+        <v>0.01290462177925611</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.03754644109727634</v>
+        <v>0.006653252122559072</v>
       </c>
       <c r="F5" s="15" t="n">
-        <v>0.04302553102600393</v>
+        <v>-0.01853376213040581</v>
       </c>
       <c r="G5" s="15" t="n">
-        <v>-0.005952201199605267</v>
+        <v>-0.01566117435516989</v>
       </c>
       <c r="H5" s="15" t="n">
-        <v>0.0345008846137056</v>
+        <v>0.02536649160966764</v>
       </c>
       <c r="I5" s="15" t="n">
-        <v>-0.05292923349506529</v>
+        <v>0.00112445822314311</v>
       </c>
       <c r="J5" s="15" t="n">
-        <v>-0.01259086646162488</v>
+        <v>-0.009381320749003219</v>
       </c>
       <c r="K5" s="15" t="n">
-        <v>0.01197043831819466</v>
+        <v>-0.02042174400758723</v>
       </c>
       <c r="L5" s="15" t="n">
-        <v>0.03456537915757996</v>
+        <v>-0.02453544295558163</v>
       </c>
       <c r="M5" s="15" t="n">
-        <v>0.009897697877810252</v>
+        <v>-0.004882534223874413</v>
       </c>
     </row>
     <row r="6">
@@ -2044,40 +2044,40 @@
         <v>2018</v>
       </c>
       <c r="B6" s="15" t="n">
-        <v>0.03339816338122858</v>
+        <v>-0.02601177230125096</v>
       </c>
       <c r="C6" s="15" t="n">
-        <v>-0.06804554959109665</v>
+        <v>-0.02176998002005415</v>
       </c>
       <c r="D6" s="15" t="n">
-        <v>-0.06431485528490988</v>
+        <v>0.05557051080962294</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.0322933530941687</v>
+        <v>0.01390259389999815</v>
       </c>
       <c r="F6" s="15" t="n">
-        <v>0.09804735282429689</v>
+        <v>0.05550871980633754</v>
       </c>
       <c r="G6" s="15" t="n">
-        <v>0.03786754336192488</v>
+        <v>0.03538611144619441</v>
       </c>
       <c r="H6" s="15" t="n">
-        <v>0.002753115861112931</v>
+        <v>-0.02952589232493508</v>
       </c>
       <c r="I6" s="15" t="n">
-        <v>0.02924915262945094</v>
+        <v>-0.009019982511279112</v>
       </c>
       <c r="J6" s="15" t="n">
-        <v>0.01427154386146245</v>
+        <v>-0.03328095998769987</v>
       </c>
       <c r="K6" s="15" t="n">
-        <v>0.068043671607384</v>
+        <v>0.05141079427955852</v>
       </c>
       <c r="L6" s="15" t="n">
-        <v>-0.06749528818434103</v>
+        <v>-0.03424064140761585</v>
       </c>
       <c r="M6" s="15" t="n">
-        <v>0.09628787913845893</v>
+        <v>0.0913088711820087</v>
       </c>
     </row>
     <row r="7">
@@ -2085,40 +2085,40 @@
         <v>2019</v>
       </c>
       <c r="B7" s="15" t="n">
-        <v>-0.01060862474505819</v>
+        <v>-0.08949044498518388</v>
       </c>
       <c r="C7" s="15" t="n">
-        <v>-0.0008470811096417119</v>
+        <v>0.1334135557150427</v>
       </c>
       <c r="D7" s="15" t="n">
-        <v>-0.06134727071446189</v>
+        <v>-0.005294642689076423</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.0197601465551891</v>
+        <v>-0.03453366859969831</v>
       </c>
       <c r="F7" s="15" t="n">
-        <v>0.04779317517375925</v>
+        <v>0.02252721901078081</v>
       </c>
       <c r="G7" s="15" t="n">
-        <v>-0.01439414151774365</v>
+        <v>-0.04436910468199873</v>
       </c>
       <c r="H7" s="15" t="n">
-        <v>-0.04796271307186462</v>
+        <v>-0.01456157939257896</v>
       </c>
       <c r="I7" s="15" t="n">
-        <v>-0.01211038447924351</v>
+        <v>0.02888030663622398</v>
       </c>
       <c r="J7" s="15" t="n">
-        <v>0.004695956267634971</v>
+        <v>0.0184232670480633</v>
       </c>
       <c r="K7" s="15" t="n">
-        <v>-0.02180347683318951</v>
+        <v>-0.01116508853651255</v>
       </c>
       <c r="L7" s="15" t="n">
-        <v>-0.01621374981874069</v>
+        <v>-0.01343845301442992</v>
       </c>
       <c r="M7" s="15" t="n">
-        <v>-0.02333836959497793</v>
+        <v>0.0104635972374052</v>
       </c>
     </row>
     <row r="8">
@@ -2126,40 +2126,40 @@
         <v>2020</v>
       </c>
       <c r="B8" s="15" t="n">
-        <v>-0.04208762809110678</v>
+        <v>0.06890105619304476</v>
       </c>
       <c r="C8" s="15" t="n">
-        <v>-0.1185294596602108</v>
+        <v>-0.06925785033225695</v>
       </c>
       <c r="D8" s="15" t="n">
-        <v>0.05879393561467028</v>
+        <v>-0.01564683817049972</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>-0.0934947371921544</v>
+        <v>-0.05286664591564094</v>
       </c>
       <c r="F8" s="15" t="n">
-        <v>0.007667016287765227</v>
+        <v>0.04443406398640626</v>
       </c>
       <c r="G8" s="15" t="n">
-        <v>-0.09746147240762204</v>
+        <v>0.03680392214725337</v>
       </c>
       <c r="H8" s="15" t="n">
-        <v>-0.09106253323154645</v>
+        <v>0.002087106844104847</v>
       </c>
       <c r="I8" s="15" t="n">
-        <v>0.005379067515182356</v>
+        <v>-0.06515864932127657</v>
       </c>
       <c r="J8" s="15" t="n">
-        <v>0.03478004813533087</v>
+        <v>-0.003705670178161369</v>
       </c>
       <c r="K8" s="15" t="n">
-        <v>-0.0413648008150731</v>
+        <v>-0.0431122677764485</v>
       </c>
       <c r="L8" s="15" t="n">
-        <v>0.0239992598206149</v>
+        <v>-0.01605372166432528</v>
       </c>
       <c r="M8" s="15" t="n">
-        <v>-0.1063794380164952</v>
+        <v>-0.0124657859876327</v>
       </c>
     </row>
     <row r="9">
@@ -2167,40 +2167,40 @@
         <v>2021</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>-0.04843703217499995</v>
+        <v>-0.007167362829996304</v>
       </c>
       <c r="C9" s="15" t="n">
-        <v>0.0418089164575699</v>
+        <v>-0.0557036005281758</v>
       </c>
       <c r="D9" s="15" t="n">
-        <v>0.03226223786003857</v>
+        <v>0.02190909904932115</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>-0.1051284940948314</v>
+        <v>0.008537168584026977</v>
       </c>
       <c r="F9" s="15" t="n">
-        <v>-0.03529942200849867</v>
+        <v>-0.02741109030874467</v>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-0.05661049280700925</v>
+        <v>-0.006372201176976566</v>
       </c>
       <c r="H9" s="15" t="n">
-        <v>0.01370367490224766</v>
+        <v>0.09873305805085564</v>
       </c>
       <c r="I9" s="15" t="n">
-        <v>0.0631420171935364</v>
+        <v>-0.008594170355056163</v>
       </c>
       <c r="J9" s="15" t="n">
-        <v>-0.04791024458747084</v>
+        <v>-0.06828735258815433</v>
       </c>
       <c r="K9" s="15" t="n">
-        <v>-0.0332400962358782</v>
+        <v>-0.01118768128781511</v>
       </c>
       <c r="L9" s="15" t="n">
-        <v>-0.0316684990993561</v>
+        <v>0.03390093658588089</v>
       </c>
       <c r="M9" s="15" t="n">
-        <v>0.05375010601451913</v>
+        <v>-0.02263262591401627</v>
       </c>
     </row>
     <row r="10">
@@ -2208,25 +2208,25 @@
         <v>2022</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>0.1229927581360675</v>
+        <v>0.05871330077738635</v>
       </c>
       <c r="C10" s="15" t="n">
-        <v>0.01264864006375133</v>
+        <v>0.003265344548491145</v>
       </c>
       <c r="D10" s="15" t="n">
-        <v>0.02611068887249801</v>
+        <v>0.02262705110821384</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.1370712972350066</v>
+        <v>0.05035609478552772</v>
       </c>
       <c r="F10" s="15" t="n">
-        <v>-0.02326979874217805</v>
+        <v>0.0007830740382497314</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>-0.06169090232309993</v>
+        <v>0.03123267940428631</v>
       </c>
       <c r="H10" s="15" t="n">
-        <v>0.01292461622919028</v>
+        <v>0.006700798152186938</v>
       </c>
       <c r="I10" s="15" t="n">
         <v/>
